--- a/java_zh/eredmenyek.xlsx
+++ b/java_zh/eredmenyek.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Egyetem\java_zh\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\Egyetem\java_zh\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F52A7A38-C995-492E-87BB-7462FC91B370}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBC0825C-F6F5-49A8-BE10-19EBE7011C5E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="12030" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,6 @@
     <sheet name="Kurzus kód 16; Tárgynév Progra" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -28,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="95">
   <si>
     <t>Név</t>
   </si>
@@ -310,6 +309,9 @@
   </si>
   <si>
     <t>5</t>
+  </si>
+  <si>
+    <t>3. Pont</t>
   </si>
 </sst>
 </file>
@@ -699,8 +701,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -709,7 +711,7 @@
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.42578125" customWidth="1"/>
     <col min="4" max="4" width="11.28515625" customWidth="1"/>
-    <col min="5" max="5" width="103" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.85546875" customWidth="1"/>
     <col min="6" max="6" width="23" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="0" hidden="1"/>
   </cols>
@@ -727,7 +729,9 @@
       <c r="D1" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="E1" s="4"/>
+      <c r="E1" s="4" t="s">
+        <v>94</v>
+      </c>
       <c r="F1" s="4"/>
       <c r="V1" s="1" t="s">
         <v>2</v>

--- a/java_zh/eredmenyek.xlsx
+++ b/java_zh/eredmenyek.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\Egyetem\java_zh\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBC0825C-F6F5-49A8-BE10-19EBE7011C5E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B73626C-3D30-4594-AFCA-6D6CBCE6C876}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="12030" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="98">
   <si>
     <t>Név</t>
   </si>
@@ -312,6 +312,15 @@
   </si>
   <si>
     <t>3. Pont</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>0</t>
   </si>
 </sst>
 </file>
@@ -369,7 +378,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1">
       <protection locked="0"/>
@@ -398,6 +407,13 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -702,7 +718,7 @@
   <dimension ref="A1:V36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -748,7 +764,7 @@
       <c r="D2" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="E2" s="5"/>
+      <c r="E2" s="10"/>
       <c r="F2" s="5"/>
       <c r="V2" s="1" t="s">
         <v>5</v>
@@ -763,7 +779,7 @@
       </c>
       <c r="C3" s="7"/>
       <c r="D3" s="8"/>
-      <c r="E3" s="5"/>
+      <c r="E3" s="10"/>
       <c r="F3" s="5"/>
       <c r="V3" s="1" t="s">
         <v>8</v>
@@ -778,7 +794,9 @@
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="8"/>
-      <c r="E4" s="5"/>
+      <c r="E4" s="10" t="s">
+        <v>95</v>
+      </c>
       <c r="F4" s="5"/>
       <c r="V4" s="1" t="s">
         <v>11</v>
@@ -795,7 +813,7 @@
       <c r="D5" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="E5" s="5"/>
+      <c r="E5" s="10"/>
       <c r="F5" s="5"/>
       <c r="V5" s="1" t="s">
         <v>14</v>
@@ -812,7 +830,7 @@
         <v>90</v>
       </c>
       <c r="D6" s="8"/>
-      <c r="E6" s="5"/>
+      <c r="E6" s="10"/>
       <c r="F6" s="5"/>
       <c r="V6" s="1" t="s">
         <v>17</v>
@@ -829,7 +847,7 @@
         <v>7</v>
       </c>
       <c r="D7" s="8"/>
-      <c r="E7" s="5"/>
+      <c r="E7" s="10"/>
       <c r="F7" s="5"/>
       <c r="V7" s="1" t="s">
         <v>20</v>
@@ -844,7 +862,7 @@
       </c>
       <c r="C8" s="7"/>
       <c r="D8" s="8"/>
-      <c r="E8" s="5"/>
+      <c r="E8" s="10"/>
       <c r="F8" s="5"/>
       <c r="V8" s="1" t="s">
         <v>23</v>
@@ -859,7 +877,7 @@
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="8"/>
-      <c r="E9" s="5"/>
+      <c r="E9" s="10"/>
       <c r="F9" s="5"/>
       <c r="V9" s="1" t="s">
         <v>26</v>
@@ -874,7 +892,9 @@
       </c>
       <c r="C10" s="7"/>
       <c r="D10" s="8"/>
-      <c r="E10" s="5"/>
+      <c r="E10" s="10" t="s">
+        <v>89</v>
+      </c>
       <c r="F10" s="5"/>
       <c r="V10" s="1" t="s">
         <v>29</v>
@@ -889,7 +909,9 @@
       </c>
       <c r="C11" s="7"/>
       <c r="D11" s="8"/>
-      <c r="E11" s="5"/>
+      <c r="E11" s="10" t="s">
+        <v>93</v>
+      </c>
       <c r="F11" s="5"/>
       <c r="V11" s="1" t="s">
         <v>32</v>
@@ -904,7 +926,9 @@
       </c>
       <c r="C12" s="6"/>
       <c r="D12" s="8"/>
-      <c r="E12" s="5"/>
+      <c r="E12" s="10" t="s">
+        <v>96</v>
+      </c>
       <c r="F12" s="5"/>
       <c r="V12" s="1" t="s">
         <v>35</v>
@@ -919,7 +943,9 @@
       </c>
       <c r="C13" s="6"/>
       <c r="D13" s="8"/>
-      <c r="E13" s="5"/>
+      <c r="E13" s="10" t="s">
+        <v>93</v>
+      </c>
       <c r="F13" s="5"/>
       <c r="V13" s="1" t="s">
         <v>38</v>
@@ -938,7 +964,7 @@
       <c r="D14" s="8">
         <v>9</v>
       </c>
-      <c r="E14" s="5"/>
+      <c r="E14" s="10"/>
       <c r="F14" s="5"/>
       <c r="V14" s="1" t="s">
         <v>41</v>
@@ -953,7 +979,7 @@
       </c>
       <c r="C15" s="6"/>
       <c r="D15" s="8"/>
-      <c r="E15" s="5"/>
+      <c r="E15" s="10"/>
       <c r="F15" s="5"/>
       <c r="V15" s="1" t="s">
         <v>44</v>
@@ -970,7 +996,7 @@
         <v>89</v>
       </c>
       <c r="D16" s="8"/>
-      <c r="E16" s="5"/>
+      <c r="E16" s="10"/>
       <c r="F16" s="5"/>
       <c r="V16" s="1" t="s">
         <v>47</v>
@@ -985,7 +1011,9 @@
       </c>
       <c r="C17" s="7"/>
       <c r="D17" s="8"/>
-      <c r="E17" s="5"/>
+      <c r="E17" s="10" t="s">
+        <v>97</v>
+      </c>
       <c r="F17" s="5"/>
       <c r="V17" s="1" t="s">
         <v>50</v>
@@ -1000,6 +1028,7 @@
       </c>
       <c r="C18" s="7"/>
       <c r="D18" s="9"/>
+      <c r="E18" s="11"/>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
@@ -1010,6 +1039,9 @@
       </c>
       <c r="C19" s="7"/>
       <c r="D19" s="9"/>
+      <c r="E19" s="11">
+        <v>8</v>
+      </c>
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
@@ -1022,6 +1054,7 @@
       <c r="D20" s="9">
         <v>7</v>
       </c>
+      <c r="E20" s="11"/>
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
@@ -1034,6 +1067,7 @@
       <c r="D21" s="9">
         <v>8</v>
       </c>
+      <c r="E21" s="11"/>
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
@@ -1046,6 +1080,7 @@
       <c r="D22" s="9">
         <v>7</v>
       </c>
+      <c r="E22" s="11"/>
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
@@ -1056,6 +1091,9 @@
       </c>
       <c r="C23" s="6"/>
       <c r="D23" s="9"/>
+      <c r="E23" s="11">
+        <v>5</v>
+      </c>
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
@@ -1068,6 +1106,7 @@
       <c r="D24" s="9">
         <v>5</v>
       </c>
+      <c r="E24" s="11"/>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
@@ -1078,6 +1117,7 @@
       </c>
       <c r="C25" s="7"/>
       <c r="D25" s="9"/>
+      <c r="E25" s="11"/>
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
@@ -1088,6 +1128,7 @@
       </c>
       <c r="C26" s="6"/>
       <c r="D26" s="9"/>
+      <c r="E26" s="11"/>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
@@ -1098,6 +1139,9 @@
       </c>
       <c r="C27" s="7"/>
       <c r="D27" s="9"/>
+      <c r="E27" s="11">
+        <v>10</v>
+      </c>
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
@@ -1110,6 +1154,7 @@
         <v>9</v>
       </c>
       <c r="D28" s="9"/>
+      <c r="E28" s="11"/>
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
@@ -1120,6 +1165,7 @@
       </c>
       <c r="C29" s="6"/>
       <c r="D29" s="9"/>
+      <c r="E29" s="11"/>
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
@@ -1130,6 +1176,7 @@
       </c>
       <c r="C30" s="7"/>
       <c r="D30" s="9"/>
+      <c r="E30" s="11"/>
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
@@ -1140,6 +1187,7 @@
       </c>
       <c r="C31" s="7"/>
       <c r="D31" s="9"/>
+      <c r="E31" s="11"/>
     </row>
     <row r="32" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
@@ -1150,8 +1198,9 @@
       </c>
       <c r="C32" s="7"/>
       <c r="D32" s="9"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E32" s="11"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>83</v>
       </c>
@@ -1160,8 +1209,9 @@
       </c>
       <c r="C33" s="7"/>
       <c r="D33" s="9"/>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E33" s="11"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>85</v>
       </c>
@@ -1170,8 +1220,9 @@
       </c>
       <c r="C34" s="7"/>
       <c r="D34" s="9"/>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E34" s="11"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>48</v>
       </c>
@@ -1182,8 +1233,9 @@
       <c r="D35" s="9">
         <v>7</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E35" s="11"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>87</v>
       </c>
@@ -1194,6 +1246,7 @@
         <v>6</v>
       </c>
       <c r="D36" s="9"/>
+      <c r="E36" s="11"/>
     </row>
   </sheetData>
   <sortState ref="A2:C36">

--- a/java_zh/eredmenyek.xlsx
+++ b/java_zh/eredmenyek.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\Egyetem\java_zh\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B73626C-3D30-4594-AFCA-6D6CBCE6C876}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6848757-0BA2-4FE3-9CF4-BED656461BA9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="12030" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="99">
   <si>
     <t>Név</t>
   </si>
@@ -321,6 +321,9 @@
   </si>
   <si>
     <t>0</t>
+  </si>
+  <si>
+    <t>6</t>
   </si>
 </sst>
 </file>
@@ -717,8 +720,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -979,7 +982,9 @@
       </c>
       <c r="C15" s="6"/>
       <c r="D15" s="8"/>
-      <c r="E15" s="10"/>
+      <c r="E15" s="10" t="s">
+        <v>98</v>
+      </c>
       <c r="F15" s="5"/>
       <c r="V15" s="1" t="s">
         <v>44</v>
@@ -1165,7 +1170,9 @@
       </c>
       <c r="C29" s="6"/>
       <c r="D29" s="9"/>
-      <c r="E29" s="11"/>
+      <c r="E29" s="11">
+        <v>5</v>
+      </c>
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
@@ -1175,7 +1182,9 @@
         <v>78</v>
       </c>
       <c r="C30" s="7"/>
-      <c r="D30" s="9"/>
+      <c r="D30" s="9">
+        <v>9</v>
+      </c>
       <c r="E30" s="11"/>
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.25">
